--- a/doc/ocpdb数据模型.xlsx
+++ b/doc/ocpdb数据模型.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. computer science\工程实践\工程实践2\作业\作业1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Computer Science\工程实践\工程实践2\开发\ocp_dev\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63315B89-999E-4A50-89AA-D40DA9D82EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75749E7E-CBF9-41DC-9307-9CF49FEDB4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="239">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -987,6 +983,21 @@
   </si>
   <si>
     <t>sop_volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sto_rereviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>初审人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1283,11 +1294,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,6 +1404,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1390,13 +1436,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1490869</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1452,7 +1498,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>682486</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>125896</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1508,7 +1554,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>742122</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139148</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1564,7 +1610,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>26505</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1670,13 +1716,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>894525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>212035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>675861</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1988,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2079,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -2045,19 +2091,19 @@
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="Q2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="S2" s="26"/>
       <c r="T2" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
@@ -2079,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
@@ -2100,7 +2146,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>1</v>
@@ -2121,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>1</v>
@@ -2129,7 +2175,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>74</v>
@@ -2138,17 +2184,17 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>74</v>
@@ -2157,17 +2203,17 @@
         <v>20</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>74</v>
@@ -2176,11 +2222,11 @@
         <v>20</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>2</v>
@@ -2188,7 +2234,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>74</v>
@@ -2203,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>75</v>
@@ -2213,10 +2259,10 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>73</v>
@@ -2225,11 +2271,11 @@
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W5" s="11" t="s">
         <v>13</v>
@@ -2237,7 +2283,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>73</v>
@@ -2248,13 +2294,13 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>74</v>
@@ -2269,22 +2315,22 @@
         <v>3</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>73</v>
@@ -2295,13 +2341,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>73</v>
@@ -2312,16 +2358,16 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -2333,7 +2379,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>73</v>
@@ -2344,13 +2390,13 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>73</v>
@@ -2361,28 +2407,28 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>74</v>
@@ -2391,17 +2437,17 @@
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>74</v>
@@ -2416,37 +2462,37 @@
         <v>19</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>74</v>
@@ -2463,7 +2509,7 @@
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>75</v>
@@ -2473,10 +2519,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>74</v>
@@ -2491,21 +2537,21 @@
         <v>21</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
     </row>
     <row r="12" spans="1:23" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>74</v>
@@ -2520,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>74</v>
@@ -2532,7 +2578,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>0</v>
@@ -2550,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>1</v>
@@ -2558,7 +2604,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>74</v>
@@ -2573,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>74</v>
@@ -2588,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>74</v>
@@ -2597,11 +2643,11 @@
         <v>20</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W13" s="10" t="s">
         <v>2</v>
@@ -2609,7 +2655,7 @@
     </row>
     <row r="14" spans="1:23" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>74</v>
@@ -2618,17 +2664,17 @@
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>74</v>
@@ -2643,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>73</v>
@@ -2652,11 +2698,11 @@
         <v>10</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W14" s="11" t="s">
         <v>13</v>
@@ -2664,7 +2710,7 @@
     </row>
     <row r="15" spans="1:23" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>74</v>
@@ -2679,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>74</v>
@@ -2688,49 +2734,49 @@
         <v>20</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="28">
         <v>10</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>76</v>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>74</v>
@@ -2745,10 +2791,10 @@
         <v>12</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2759,149 +2805,141 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="16">
+      <c r="A17" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16">
         <v>10</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>76</v>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="28">
+        <v>10</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="16">
+        <v>10</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="Q18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="Q24" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="5">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="1" t="s">
+    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="I25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="23"/>
       <c r="Q25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>1</v>
@@ -2926,47 +2964,47 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="5">
-        <v>10</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>4</v>
+      <c r="O26" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>74</v>
@@ -2975,11 +3013,11 @@
         <v>20</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W26" s="10" t="s">
         <v>39</v>
@@ -2990,34 +3028,44 @@
         <v>157</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5">
-        <v>50</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="5">
-        <v>20</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="O27" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>74</v>
@@ -3026,17 +3074,17 @@
         <v>8</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>74</v>
@@ -3048,10 +3096,10 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="10" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>74</v>
@@ -3063,27 +3111,27 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="14" t="s">
-        <v>199</v>
+      <c r="G29" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>74</v>
@@ -3094,25 +3142,25 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="14" t="s">
-        <v>203</v>
+      <c r="O29" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S29" s="23"/>
       <c r="T29" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U29" s="24"/>
       <c r="V29" s="24"/>
     </row>
     <row r="30" spans="1:23" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>74</v>
@@ -3124,10 +3172,10 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>74</v>
@@ -3138,8 +3186,8 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="10" t="s">
-        <v>10</v>
+      <c r="O30" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>0</v>
@@ -3157,30 +3205,30 @@
         <v>9</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>206</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="5">
+        <v>20</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="10" t="s">
-        <v>182</v>
+      <c r="G31" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>74</v>
@@ -3192,10 +3240,10 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>74</v>
@@ -3204,49 +3252,49 @@
         <v>20</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W31" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K32" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="14" t="s">
-        <v>202</v>
+      <c r="O32" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>74</v>
@@ -3255,228 +3303,243 @@
         <v>8</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="10" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K33" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>39</v>
+      <c r="N33" s="5"/>
+      <c r="O33" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="O34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K35" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="10" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K36" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="10" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K37" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="5">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="16">
+        <v>30</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="5">
+        <v>10</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="5">
         <v>100</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="5">
-        <v>20</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="16">
+        <v>100</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>74</v>
@@ -3488,143 +3551,131 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I42" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J42" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="16" t="s">
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C43" s="16">
         <v>10</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="N43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="5">
-        <v>10</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I44" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K44" s="5">
-        <v>20</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O44" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I45" s="9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K45" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I46" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>74</v>
@@ -3636,284 +3687,296 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
       <c r="I47" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K47" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="5">
         <v>20</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="5">
-        <v>100</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="5">
+        <v>20</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="5">
+        <v>100</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="5">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="5">
         <v>10</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K49" s="16">
-        <v>100</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="5">
-        <v>20</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="16">
+        <v>100</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K52" s="23"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="5">
+        <v>20</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K55" s="5">
         <v>10</v>
       </c>
-      <c r="L54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N54" s="5" t="s">
+      <c r="L55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O54" s="10" t="s">
+      <c r="O55" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="16">
+    <row r="56" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="16">
         <v>10</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="9" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K55" s="5">
-        <v>20</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I56" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>74</v>
@@ -3925,65 +3988,44 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I57" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
       <c r="I58" s="9" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K58" s="5">
         <v>10</v>
@@ -3992,33 +4034,33 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="5">
-        <v>10</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>74</v>
@@ -4029,210 +4071,246 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="O59" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K60" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="5">
+        <v>100</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="5">
         <v>20</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="16">
+      <c r="O61" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="5">
         <v>20</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17" t="s">
-        <v>21</v>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="16">
+        <v>20</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="I63" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="10" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I64" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I66" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I67" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" s="16">
+        <v>1</v>
+      </c>
+      <c r="N68" s="16"/>
+      <c r="O68" s="18" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="9:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M67" s="16">
-        <v>1</v>
-      </c>
-      <c r="N67" s="16"/>
-      <c r="O67" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:V24"/>
